--- a/src/test/resources/post/에이블리_cu_대량발송.xlsx
+++ b/src/test/resources/post/에이블리_cu_대량발송.xlsx
@@ -86,7 +86,7 @@
     <t>010-5121-9531</t>
   </si>
   <si>
-    <t xml:space="preserve">쿼카파인애플 1 쿼카트리 1 쿼카붕어빵 1 </t>
+    <t xml:space="preserve">쿼카붕어빵 1 쿼카트리 1 쿼카파인애플 1 </t>
   </si>
   <si>
     <t>김다영</t>
